--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3007.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3007.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.176184881049628</v>
+        <v>1.315621137619019</v>
       </c>
       <c r="B1">
-        <v>2.4159546876836</v>
+        <v>1.625413060188293</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.259082078933716</v>
       </c>
       <c r="D1">
-        <v>2.30835463629944</v>
+        <v>4.833589553833008</v>
       </c>
       <c r="E1">
-        <v>1.201097232807394</v>
+        <v>4.305968761444092</v>
       </c>
     </row>
   </sheetData>
